--- a/Marketing/msu.roomme.xlsx
+++ b/Marketing/msu.roomme.xlsx
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">

--- a/Marketing/msu.roomme.xlsx
+++ b/Marketing/msu.roomme.xlsx
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">

--- a/Marketing/msu.roomme.xlsx
+++ b/Marketing/msu.roomme.xlsx
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">

--- a/Marketing/msu.roomme.xlsx
+++ b/Marketing/msu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B617"/>
+  <dimension ref="A1:B405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mean.kaari</t>
+          <t>chisholm_andrew17</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>manus_romero</t>
+          <t>ojoleister</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>_kelseyhill</t>
+          <t>_sarahhdaviss_</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sulemanraja569</t>
+          <t>amygcowan</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>edigley.junior</t>
+          <t>xabu_khan</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sarkalusniak</t>
+          <t>cookie_baugh</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sofieurena</t>
+          <t>msulawns</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hamadaa.elmasry</t>
+          <t>angelicahabib8</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bang_u12</t>
+          <t>cross.cooper</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>alexaoliviia</t>
+          <t>carrigan_mcgraw</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sandy.esam</t>
+          <t>khodaali94_</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ashlyn_urban</t>
+          <t>avaarwady</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>emmasodoma</t>
+          <t>elisedoureen</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ashley_7104</t>
+          <t>adina.peysakhov</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>orrell.daniel</t>
+          <t>im_juliesal</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>kuldeep.king.1213</t>
+          <t>yuvraj_shah412</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ianmajor17</t>
+          <t>everynationatmsu</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>fuzzybeard354</t>
+          <t>janetkstavy</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>juliahale24</t>
+          <t>evelyngrimmm</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>wi.lliamwykes</t>
+          <t>guedesjul</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>kyla._.mari</t>
+          <t>kspetsu</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>scr.0000</t>
+          <t>bellaedepaul</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>aldenheyboer</t>
+          <t>marii.ice</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>andreonly93</t>
+          <t>gcaw24</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ab_carrigan</t>
+          <t>paytonbattle._</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>wikab53186</t>
+          <t>jenboucher3</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>gracias_altamirano</t>
+          <t>zadekazziha</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>will.italia55</t>
+          <t>ellakruschka</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>yuvraj_shah412</t>
+          <t>shivkap1</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>aayaaan12</t>
+          <t>natalie.stnr_</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>abbeybiedigerr</t>
+          <t>lolo.klf</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>andhikasaputra_105</t>
+          <t>okangormez9</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>halecoss</t>
+          <t>darshil_04</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>icadik420</t>
+          <t>yasser.ah16</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>m_anne_d</t>
+          <t>julian_evin_je</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>chisholm_andrew17</t>
+          <t>kelly.a.kroll</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>spirit_signs</t>
+          <t>natalie__lorenz</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>emma.markham7</t>
+          <t>adrianamae._</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>lucaswilliam1656</t>
+          <t>cody_farwell</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>hemmmm1111</t>
+          <t>norbertolamenca</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>themrpapa</t>
+          <t>laurenchoraz</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>angels.echo</t>
+          <t>jessicaherber</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>black_and_blue43</t>
+          <t>alyssasmouthers</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>anat.pissetzky</t>
+          <t>olivia.wells74</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>jack.forse10</t>
+          <t>hamid.mahin.fallah</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>tyler.esch</t>
+          <t>jesse.bunch</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>alec.demas</t>
+          <t>ashley221442</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>zoerbland</t>
+          <t>kkosmu</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sofia_traver</t>
+          <t>skdaum2</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>mulvihill_brody</t>
+          <t>sophiamcgra_19</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>hosse.in3578</t>
+          <t>richard_molinelli</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>amaritorresss</t>
+          <t>brhoo.my0</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>rebecca.scherrer</t>
+          <t>tinamarieminar</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>devon_meade22</t>
+          <t>stelllahenderson</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>max.z.murphy</t>
+          <t>maggiematsonn</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>asya_yilmaz12</t>
+          <t>xoxoabbyb</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>the__notoriousmma111</t>
+          <t>diby2115</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>finn.moher</t>
+          <t>jacie.walden</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>calebbeebe</t>
+          <t>avasilarski</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>justfin.png</t>
+          <t>maslankamaslanka881</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>arjun_batra7</t>
+          <t>jamie.le1</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>austin__conley</t>
+          <t>maycie.faye</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>imdmiju09</t>
+          <t>___shokh____</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>royanasery1996</t>
+          <t>lillymc331</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>marcolovelll</t>
+          <t>drewj_williams</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>marleemikat</t>
+          <t>maddielacross4</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>chase.dann13</t>
+          <t>kelly.bussis</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>rileyholtzz</t>
+          <t>shashank_pagadala_</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>eggs8888</t>
+          <t>alys.mathew</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>elizadelwiche</t>
+          <t>lucasshampo</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>macey.tenbrink</t>
+          <t>haleybutkovich</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ilse.willockx</t>
+          <t>juhbenitah</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>btalagna</t>
+          <t>sahil_evil_hunter</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>evelina_alex_1</t>
+          <t>megrhalpin</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>landon_marchione</t>
+          <t>a.j.1031</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>spirasiak</t>
+          <t>cass.1227</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>c_seames18</t>
+          <t>tutilhossan2</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>haleigh_strouse</t>
+          <t>danaarowee</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>audreylyne</t>
+          <t>macv__27</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>_sarahhdaviss_</t>
+          <t>jojo.s199s4</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>loganweltonn</t>
+          <t>kristi.searle</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>lukesmith14_</t>
+          <t>santosbeats2k21</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>5kennedy</t>
+          <t>alexandra.levra</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>beckyangliss</t>
+          <t>buhlmanree</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>macri_yas</t>
+          <t>kacajix124</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sangh.rama24</t>
+          <t>madisonwittbrodt</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>emilyhinz</t>
+          <t>nicoleszum</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>papersrebecca</t>
+          <t>faye.k.mcinerney</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>steffens_03</t>
+          <t>mmcgriddles</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>emmadugan6</t>
+          <t>audrey_marek</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>elliottob15_</t>
+          <t>samanthaahendrix</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>asgerh47</t>
+          <t>carolynmcgowan13</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>selenkandogan</t>
+          <t>millennium_mizz</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>imweastly</t>
+          <t>caljack</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>sydneymatsu</t>
+          <t>caden.pitsch</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>unused_account_20pp</t>
+          <t>rz.rhmat</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>kentonlyons_</t>
+          <t>gracyjanetomek</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>aryadinevitoriaj5</t>
+          <t>maryamhamdi22</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>milena_ida</t>
+          <t>scarlette27</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>emmawilliam994</t>
+          <t>elizadelwiche</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ce_hj4</t>
+          <t>ava_lawson04</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>erica.jordan</t>
+          <t>yefesok440</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>haniyehuhani1396</t>
+          <t>ryangriffin._</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>abbybuit</t>
+          <t>trinitymitchell_04</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>csq._.95</t>
+          <t>twfy_s</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>maycie.faye</t>
+          <t>liam.watt19</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ncharters04</t>
+          <t>ryleecarver</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>alh43189</t>
+          <t>amanjaswal94</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>khchachar7227</t>
+          <t>drewn10</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>meltraver</t>
+          <t>aten.a_mi</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>adam_coats</t>
+          <t>allydoeds</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>alexa._.mich</t>
+          <t>quinn_dahl1</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>agnesahaska</t>
+          <t>ann.elisee</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>kaylaruby1219</t>
+          <t>alyssanavin</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>mahi_queen134</t>
+          <t>geeteshgirase7</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>edie.pawlak</t>
+          <t>soogar_pf</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>kellysmontgomery</t>
+          <t>itsgracemac</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>lucascentlivre</t>
+          <t>irshadkhonone</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>marisasteenbergh</t>
+          <t>neba_02</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ellie.peitz</t>
+          <t>michael.nelsonn</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>sarah.nischik</t>
+          <t>nolajc</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>poohbearworm</t>
+          <t>anna_bidolli</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>madelineebrown</t>
+          <t>christinaranguren</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>drewn10</t>
+          <t>laura_matthewss_</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>vivinmich</t>
+          <t>josh.schor</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>triciabyrne1</t>
+          <t>marastevens3</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>alanys8513</t>
+          <t>maruskin.abby</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>noahlundgren</t>
+          <t>sadiehayman</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>drewj_williams</t>
+          <t>idno0003</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>felixfuentes12</t>
+          <t>yogeshpatil9391</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>adds_the_gremlin</t>
+          <t>taeywright</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>a_liaromatis</t>
+          <t>ry_dayungen</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>samane_mn2</t>
+          <t>arjun_batra7</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>kkosmu</t>
+          <t>julialavallee7</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ellakruschka</t>
+          <t>sofieurena</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>besheshar</t>
+          <t>cc.ambassador4</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>joshturner.05</t>
+          <t>ryleigh_neal_</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>cl.herz</t>
+          <t>amaaanf</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>omioamin</t>
+          <t>anvita.04</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>aymenhouki</t>
+          <t>kate.lossing</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>lillietee49</t>
+          <t>natalie_tobey</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>pchick99</t>
+          <t>joli_pr20</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>lucas_johr</t>
+          <t>kaleb_m_15</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>marccanellas80</t>
+          <t>mymona_islam</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>tanvi2708</t>
+          <t>anuj_jadhav903</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ellabrakke</t>
+          <t>dony_a6569</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>elisabethzubal</t>
+          <t>cateleonardd</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>nastaran_12341234</t>
+          <t>darhoff187</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>tharindu933</t>
+          <t>jazlynncowling</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>abdilmanovabalnur</t>
+          <t>hannahhart_12</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>tito.s.m</t>
+          <t>sam.harmon.42</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>_purple_potato</t>
+          <t>lavinia.panetti</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>littledrummermom</t>
+          <t>hunter_shoemaker01</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>insta_budgies_</t>
+          <t>wambuifay0</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>mary.gallagher315</t>
+          <t>corablatchford</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>kris_b_vermeulen</t>
+          <t>kissa.rmy66</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>jackradziwicz</t>
+          <t>shane.rogan</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>loren.hoffman</t>
+          <t>giannaannoni</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>audrey.cubba</t>
+          <t>sashastoyanovich10</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>amandagcarroll</t>
+          <t>royaa__radman</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>carolineseidd</t>
+          <t>lisiexo</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>meagan_rock17</t>
+          <t>mahbub20117466</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>willbruguiere</t>
+          <t>joynal7825</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>im_juliesal</t>
+          <t>audrey.simenz</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>albertt_lee193</t>
+          <t>kathleenmccownn</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>_elizabethjoo_</t>
+          <t>urvi.jalan</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>nicoleszum</t>
+          <t>_maryann_derr2022</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>cc.ambassador4</t>
+          <t>alexandra.ostrowski</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>amygcowan</t>
+          <t>foriv49423</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>trestan.larson</t>
+          <t>cagietzen</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>_jonmeyer</t>
+          <t>orrell.daniel</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>kelseyherdus</t>
+          <t>tessturcco</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ryancahalan</t>
+          <t>amandagcarroll</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>empfeif</t>
+          <t>dougie.cowann</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>delaneymuncy</t>
+          <t>ashleighberghorst</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>samigorton</t>
+          <t>hannaherpelding</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>tyc_n_slice03</t>
+          <t>shreyasathreya1</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>lucyjennettee</t>
+          <t>alexa_bee</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>litnwild</t>
+          <t>icadik420</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>becki1177</t>
+          <t>macey.tenbrink</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>west.holmes3rd.floor</t>
+          <t>thasimsibi</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>max.wilk3</t>
+          <t>hhilda669</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>brooklynnhema_</t>
+          <t>_rion.ando_</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>joshhirschen</t>
+          <t>youns_sham</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>xoxoabbyb</t>
+          <t>taetae_chilenitok</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>its.treasureeee</t>
+          <t>pallisaatvik</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>shriya.de</t>
+          <t>jonathonbiter</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>kacajix124</t>
+          <t>calvindowker</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>nusayb_sarwar97</t>
+          <t>gwenyth2024</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ian__grimes</t>
+          <t>justina.bloch</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>maslankamaslanka881</t>
+          <t>jejacquess</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>royaa__radman</t>
+          <t>bekahweiskopf</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>adrianamae._</t>
+          <t>natebratta</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>caroline_beckrow</t>
+          <t>aubreybukosky</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>zoeyzienski</t>
+          <t>udeshtharaka</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>sonia104_</t>
+          <t>mwhitefoot21</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>farooq3259</t>
+          <t>alexa._.mich</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>imkaboom</t>
+          <t>mariya_panafidina</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>_.katiejohnson._</t>
+          <t>alexamoresss</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>carolinelogle</t>
+          <t>maceypolk</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,407 +2448,407 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ellaamira74</t>
+          <t>lauren_molnarr</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>sujon420420</t>
+          <t>kentonlyons_</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>michellesfikas</t>
+          <t>ajco_1905</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>maddiemerkler</t>
+          <t>delaneymuncy</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>kenzrando</t>
+          <t>zach_franz</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>kirasaroken</t>
+          <t>laquinta_001</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>quinn_dahl1</t>
+          <t>juliahale24</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>okangormez9</t>
+          <t>sydneymasserant</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>khashi4430</t>
+          <t>fasono5953</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>_.mackenzie.t._</t>
+          <t>julianaschroederr</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>rom1.pltr</t>
+          <t>stellabolkema</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>bellah414</t>
+          <t>abbygal1017</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>r.hutton3</t>
+          <t>miamiarnp</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>datwheatleyboi</t>
+          <t>sofia_traver</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ajco_1905</t>
+          <t>elliottob15_</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ckm04</t>
+          <t>levelheaded.j</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>scarlette27</t>
+          <t>123cutecritters</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>madisonwittbrodt</t>
+          <t>dyk.han</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>bellamarginet</t>
+          <t>hamid57439</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>aten.a_mi</t>
+          <t>kiyahburns</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>sammythebennett</t>
+          <t>en.aweng</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>anna_nedelka</t>
+          <t>ie.msu</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>theresamimgh20456</t>
+          <t>_samanthadraper</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>evelyngrimmm</t>
+          <t>allisonchickk</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>geeteshgirase7</t>
+          <t>_jcdoss18_</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>liam.watt19</t>
+          <t>_laur.10_</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>_3wess</t>
+          <t>karinazepeda12</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>nhn0192</t>
+          <t>nathan.gerrow</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>luccalmartins</t>
+          <t>zaalewskki</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>samarthshandilyaa</t>
+          <t>jacob_jp15</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>hgilly75</t>
+          <t>conorzeutzius</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>emilykane79</t>
+          <t>alibaumgartner</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ky.eross</t>
+          <t>goyeongu6444</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>aamukta23</t>
+          <t>eggs8888</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>coreywojcik</t>
+          <t>jackson_huntr</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>hannahmeltser</t>
+          <t>brendan.furnari</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>rileyjbell12</t>
+          <t>alyos_ha1</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>solmaz33258</t>
+          <t>eliannaturley</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>gabe.salgat</t>
+          <t>_sara.jean_</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>jilskufca</t>
+          <t>kelseymae_12</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>_grace.lambert_</t>
+          <t>hope_dzik</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>neba_02</t>
+          <t>joshuaterrill3</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>yefesok440</t>
+          <t>aldenheyboer</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>busy_girl1988</t>
+          <t>jamiebmeadows</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>liontrimi5</t>
+          <t>ashley._.minard</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>dony_a6569</t>
+          <t>zoerbland</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>mwhitefoot21</t>
+          <t>kenzgreenfield</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>delaneyfergie</t>
+          <t>breckynbusseymao</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>alyos_ha1</t>
+          <t>carolineseidd</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>obi.wan.bon.jovi</t>
+          <t>ana._.tabernaemontana</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>shade_grey_wayne</t>
+          <t>alyssabirmele_</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>lerc_studio_mandalas</t>
+          <t>roy.d2</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>olivia.wells74</t>
+          <t>cbell2197</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>chubembang_tri</t>
+          <t>sammy.maday</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>joli_pr20</t>
+          <t>sadegh7867a</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>jacob_jp15</t>
+          <t>shafqatraja555</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>jamie.le1</t>
+          <t>jonah.summerhays</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>julianaschroederr</t>
+          <t>bibatema5</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>andi_evans_619</t>
+          <t>john.murii</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>jahid.5900</t>
+          <t>kaylaruby1219</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>kori.l.wilson</t>
+          <t>saanvi.1i</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>kiley.conway</t>
+          <t>hvdghlb68</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>olivia_gilcher</t>
+          <t>landon_marchione</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>mckennabausman</t>
+          <t>marlamariefinn</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>makayla.leroux</t>
+          <t>bell_a2901</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>gharris_07</t>
+          <t>ccleary55</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>abbygal1017</t>
+          <t>extra_nrt</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>yasser.ah16</t>
+          <t>jonathan_stavnes</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>jenboucher3</t>
+          <t>marisahartwig_</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>santosbeats2k21</t>
+          <t>kundankumar_8</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>maggie.rkj</t>
+          <t>gregory.buck1</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>19.76389</t>
+          <t>em_phillips92</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>landonsunn</t>
+          <t>desireetuohy</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>iowa.state2026</t>
+          <t>cameronbloom__</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>jazlynncowling</t>
+          <t>steffens_03</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>alibaumgartner</t>
+          <t>destinny.todd19</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>alyssasmouthers</t>
+          <t>junior.colon1891</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>olivia.rehman</t>
+          <t>jackphelanv</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>mightymugs</t>
+          <t>brooklyn_walker24</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>emma.palazzolo</t>
+          <t>emmalacrosss</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>gregory.buck1</t>
+          <t>jamalhoshen89</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>abdumuxsinbek_uzb</t>
+          <t>noahlovy_</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>rebecca.m.wells</t>
+          <t>jahid.5900</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>kathleenmccownn</t>
+          <t>mary.andreoli</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>julia.munk</t>
+          <t>ellie.peitz</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>jamalhoshen89</t>
+          <t>felicia.skwirblies</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>grantkieft</t>
+          <t>leefboy</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>seandzw</t>
+          <t>landonsunn</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>olivia.marasco14</t>
+          <t>jj_gray77</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>griffin_b9</t>
+          <t>carolinemsu2023</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>philip_tangalos</t>
+          <t>shcha22</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>sahilpardasani</t>
+          <t>yamok2004</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>noahlovy_</t>
+          <t>farooq3259</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>nolanwright51</t>
+          <t>kylie_shane3</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>girllldats.mar</t>
+          <t>sohan_3444</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>elsultan.01</t>
+          <t>kennedyprker</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>jessicaherber</t>
+          <t>cc.ambassador7</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>aubreybukosky</t>
+          <t>rebeccaprempeh</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>katherina715</t>
+          <t>andrewferj</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>adina.peysakhov</t>
+          <t>emily.root02</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>maddie.herber4</t>
+          <t>dawsonclark611</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>hagema1643</t>
+          <t>ellabeck6545</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>lynseyzundel</t>
+          <t>adam_swartz._</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>annabelle.whittle_</t>
+          <t>qyzmms</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>edriyannie</t>
+          <t>rom1.pltr</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>block36</t>
+          <t>breecg</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ellie.knoepfle</t>
+          <t>matt.vendal</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>olivia.mcneill2</t>
+          <t>rk128717</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>haley_973</t>
+          <t>tayapride</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>loringjill</t>
+          <t>bellah414</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>cenatob615</t>
+          <t>cordeliakraus</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>n_patel6604</t>
+          <t>jett_edson</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>frontierolynn</t>
+          <t>reckergrace</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>jesusguardadoo</t>
+          <t>triciabyrne1</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>carrigan_mcgraw</t>
+          <t>msu_south_case</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>johhny_b123</t>
+          <t>deanboom22</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>tessa.mf</t>
+          <t>maria_dunn12</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>trev_chant04</t>
+          <t>katie.guse04</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ma.ddie7343</t>
+          <t>elliottdelaforet</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>jett2227</t>
+          <t>hajer.alsalman</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>christian.tiera</t>
+          <t>kris_b_vermeulen</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>synthwaveeee</t>
+          <t>audreylyne</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ava.ferguson8</t>
+          <t>loringjill</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>seth_mccomas</t>
+          <t>jackson.walton28</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>joey__paras</t>
+          <t>cass1.227</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>bringeroflight1989</t>
+          <t>joe.ryder1</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>its_rachael16</t>
+          <t>tyler_hart9</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>navgon_carlos</t>
+          <t>tracyendres</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>norbertolamenca</t>
+          <t>madievansss</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>josh.schor</t>
+          <t>navgon_carlos</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>tinamarieminar</t>
+          <t>usamaawan878</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>mistiislam333</t>
+          <t>toomis155</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>likhon781</t>
+          <t>anna.flintoft</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ljs_99_</t>
+          <t>khashi4430</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>kennedy.carson</t>
+          <t>haleyearglee</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ajparsons12</t>
+          <t>meagan_rock17</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ava_lawson04</t>
+          <t>prabha_45</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>aj_scott20231</t>
+          <t>evanhackstock</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>brendanvande</t>
+          <t>19.76389</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>pivined703</t>
+          <t>zeroburocracia</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>jesse.bunch</t>
+          <t>bobby_stutelberg_</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>liam.samuel.bordoni</t>
+          <t>chloe.kingsley</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>davidneidecker</t>
+          <t>mariah.brown13</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>rademacher.jacob</t>
+          <t>adam_roehring</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>tutilhossan2</t>
+          <t>alecia.haney</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ajh832</t>
+          <t>monacoqueenmadz</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>thasimsibi</t>
+          <t>alonna_w4</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>allison_jablonski</t>
+          <t>sammythebennett</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>lisiexo</t>
+          <t>bellamarginet</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>dawsonclark611</t>
+          <t>kyla._.mari</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>leefboy</t>
+          <t>kellyraft</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>stelllahenderson</t>
+          <t>skye_snyder_1</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>soph_wirth</t>
+          <t>emma.palazzolo</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>usamaawan878</t>
+          <t>dre.gatlin</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>jake.nichols56</t>
+          <t>aryan_yellisetti</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>allyramlow</t>
+          <t>marisasteenbergh</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>cookie_baugh</t>
+          <t>aashkashahh_</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>amanjaswal94</t>
+          <t>alec.demas</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>amyzurekk</t>
+          <t>lerc_studio_mandalas</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>hannahscantor</t>
+          <t>bibianna.rodriguez</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>_megan.mcguire</t>
+          <t>littledrummermom</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>jannatbaswani</t>
+          <t>mariannenovellibell</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>sberenson13</t>
+          <t>shade_grey_wayne</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>makenziebrundage</t>
+          <t>chaelirubley</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>bensonthelam</t>
+          <t>olivia.hagar</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>jack.panichi</t>
+          <t>finn.moher</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>monacoqueenmadz</t>
+          <t>chloe.clovers</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>nayeemaaa_</t>
+          <t>noahpatt14</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>gracyjanetomek</t>
+          <t>its_rachael16</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>mcschwarz21</t>
+          <t>joshbuko</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>therapymom4</t>
+          <t>olivia_gilcher</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>cagietzen</t>
+          <t>neeyam_m</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>branitzky</t>
+          <t>kevin.halsband</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>hopepoliti_</t>
+          <t>msugonewild</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>jackson.walton28</t>
+          <t>msu_gssa</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>jgretznerd</t>
+          <t>martha_john357</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>dollykumar4</t>
+          <t>lillyskaryd</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>avalove04</t>
+          <t>ajparsons12</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>jojo.s199s4</t>
+          <t>synthwaveeee</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>sohan_3444</t>
+          <t>macri_yas</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>miamiarnp</t>
+          <t>makaylaabrynn</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>lindsey.wendling</t>
+          <t>mer.n.k</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>sam.harmon.42</t>
+          <t>patrick.hogan9</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>natalie__lorenz</t>
+          <t>3_madison_3</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>deanboom22</t>
+          <t>mfellows417</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ziggystardust731</t>
+          <t>arianalacoursier</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>hope_dzik</t>
+          <t>umer43696</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>bigten.2026</t>
+          <t>detr0it_j</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>_jmcollins_</t>
+          <t>anna.sumampow</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>darhoff187</t>
+          <t>natalieworwa</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>syd.1415</t>
+          <t>lukesmith14_</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>elliotp42</t>
+          <t>delaney_ej</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>syd.zachos</t>
+          <t>bigten.2026</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>alyssabirmele_</t>
+          <t>conrkennedy</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>jacie.walden</t>
+          <t>mdsojib8700</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>dyk.han</t>
+          <t>poohbearworm</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>sophias7069</t>
+          <t>_3wess</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>camryn.ackerman</t>
+          <t>cierrajak</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>lucasgentry5_</t>
+          <t>brook3bennett</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>reynolds_dylan1234</t>
+          <t>_.katiejohnson._</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>idno0003</t>
+          <t>block36</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>katiehurbanis</t>
+          <t>nathanmcd25</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>averyhaviland</t>
+          <t>teagmartin</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,2130 +4478,10 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>heyitschris___</t>
+          <t>hopepoliti_</t>
         </is>
       </c>
       <c r="B405" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>anna.morrill098</t>
-        </is>
-      </c>
-      <c r="B406" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>brhoo.my0</t>
-        </is>
-      </c>
-      <c r="B407" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>ankeloeser</t>
-        </is>
-      </c>
-      <c r="B408" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>maggiematsonn</t>
-        </is>
-      </c>
-      <c r="B409" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>alexandra.levra</t>
-        </is>
-      </c>
-      <c r="B410" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>bibatema5</t>
-        </is>
-      </c>
-      <c r="B411" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>alys.mathew</t>
-        </is>
-      </c>
-      <c r="B412" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>mdsojib8700</t>
-        </is>
-      </c>
-      <c r="B413" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>brentspaulding6</t>
-        </is>
-      </c>
-      <c r="B414" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>kate.lossing</t>
-        </is>
-      </c>
-      <c r="B415" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>josh1miller</t>
-        </is>
-      </c>
-      <c r="B416" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>jared.surian</t>
-        </is>
-      </c>
-      <c r="B417" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>foriv49423</t>
-        </is>
-      </c>
-      <c r="B418" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>conorzeutzius</t>
-        </is>
-      </c>
-      <c r="B419" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>elisedoureen</t>
-        </is>
-      </c>
-      <c r="B420" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>evanhackstock</t>
-        </is>
-      </c>
-      <c r="B421" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>elliemantei</t>
-        </is>
-      </c>
-      <c r="B422" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>jejacquess</t>
-        </is>
-      </c>
-      <c r="B423" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>haleyearglee</t>
-        </is>
-      </c>
-      <c r="B424" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>lau_cermak</t>
-        </is>
-      </c>
-      <c r="B425" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>emmalacrosss</t>
-        </is>
-      </c>
-      <c r="B426" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>taetae_chilenitok</t>
-        </is>
-      </c>
-      <c r="B427" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>laquinta_001</t>
-        </is>
-      </c>
-      <c r="B428" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>parkergarw</t>
-        </is>
-      </c>
-      <c r="B429" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>riley.marie.04</t>
-        </is>
-      </c>
-      <c r="B430" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>bell_a2901</t>
-        </is>
-      </c>
-      <c r="B431" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>kylapsmith</t>
-        </is>
-      </c>
-      <c r="B432" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>yamok2004</t>
-        </is>
-      </c>
-      <c r="B433" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>aryan_yellisetti</t>
-        </is>
-      </c>
-      <c r="B434" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>kissa.rmy66</t>
-        </is>
-      </c>
-      <c r="B435" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>isabella.nelson123</t>
-        </is>
-      </c>
-      <c r="B436" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>sierrahdriscoll</t>
-        </is>
-      </c>
-      <c r="B437" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>girlieq24</t>
-        </is>
-      </c>
-      <c r="B438" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>elliebender04</t>
-        </is>
-      </c>
-      <c r="B439" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>ryangriffin._</t>
-        </is>
-      </c>
-      <c r="B440" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>itsannabelle_x</t>
-        </is>
-      </c>
-      <c r="B441" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>_imarshall</t>
-        </is>
-      </c>
-      <c r="B442" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>nathanmcd25</t>
-        </is>
-      </c>
-      <c r="B443" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>misssyy._</t>
-        </is>
-      </c>
-      <c r="B444" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>rebeccaprempeh</t>
-        </is>
-      </c>
-      <c r="B445" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>emma.ilenee</t>
-        </is>
-      </c>
-      <c r="B446" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>fent.02</t>
-        </is>
-      </c>
-      <c r="B447" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>paytonbattle._</t>
-        </is>
-      </c>
-      <c r="B448" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>emma_oswald14</t>
-        </is>
-      </c>
-      <c r="B449" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>soogar_pf</t>
-        </is>
-      </c>
-      <c r="B450" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>mariya_panafidina</t>
-        </is>
-      </c>
-      <c r="B451" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>cwarren321</t>
-        </is>
-      </c>
-      <c r="B452" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>brooke_hamama</t>
-        </is>
-      </c>
-      <c r="B453" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>emilyanderson15</t>
-        </is>
-      </c>
-      <c r="B454" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>maruskin.abby</t>
-        </is>
-      </c>
-      <c r="B455" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>hardawaychante17</t>
-        </is>
-      </c>
-      <c r="B456" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>alex.orozco33</t>
-        </is>
-      </c>
-      <c r="B457" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>alonna_w4</t>
-        </is>
-      </c>
-      <c r="B458" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>nicole.hudson_</t>
-        </is>
-      </c>
-      <c r="B459" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>katherine.hartman</t>
-        </is>
-      </c>
-      <c r="B460" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>carlosmanuelmarinez</t>
-        </is>
-      </c>
-      <c r="B461" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>allisonchickk</t>
-        </is>
-      </c>
-      <c r="B462" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>lindseyguza</t>
-        </is>
-      </c>
-      <c r="B463" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>gwenyth2024</t>
-        </is>
-      </c>
-      <c r="B464" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>sahil_evil_hunter</t>
-        </is>
-      </c>
-      <c r="B465" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>kuurenos</t>
-        </is>
-      </c>
-      <c r="B466" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>lolo.klf</t>
-        </is>
-      </c>
-      <c r="B467" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>julialavallee7</t>
-        </is>
-      </c>
-      <c r="B468" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>en.aweng</t>
-        </is>
-      </c>
-      <c r="B469" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>ellabeck6545</t>
-        </is>
-      </c>
-      <c r="B470" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>balajithinakaran</t>
-        </is>
-      </c>
-      <c r="B471" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>martha_john357</t>
-        </is>
-      </c>
-      <c r="B472" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>ayoub_dkr</t>
-        </is>
-      </c>
-      <c r="B473" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>umiami2025_</t>
-        </is>
-      </c>
-      <c r="B474" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>maria_dunn12</t>
-        </is>
-      </c>
-      <c r="B475" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>bjacobson_</t>
-        </is>
-      </c>
-      <c r="B476" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>loricarpenterr</t>
-        </is>
-      </c>
-      <c r="B477" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>levelheaded.j</t>
-        </is>
-      </c>
-      <c r="B478" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>xabu_khan</t>
-        </is>
-      </c>
-      <c r="B479" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>chimmyoriana</t>
-        </is>
-      </c>
-      <c r="B480" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>lukermick</t>
-        </is>
-      </c>
-      <c r="B481" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>umer43696</t>
-        </is>
-      </c>
-      <c r="B482" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>hvdghlb68</t>
-        </is>
-      </c>
-      <c r="B483" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>sydneymasserant</t>
-        </is>
-      </c>
-      <c r="B484" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>joshuaterrill3</t>
-        </is>
-      </c>
-      <c r="B485" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>millennium_mizz</t>
-        </is>
-      </c>
-      <c r="B486" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>ryleigh_neal_</t>
-        </is>
-      </c>
-      <c r="B487" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>brune_celeste</t>
-        </is>
-      </c>
-      <c r="B488" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>annanerat</t>
-        </is>
-      </c>
-      <c r="B489" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>brook3bennett</t>
-        </is>
-      </c>
-      <c r="B490" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>xiaoyao811</t>
-        </is>
-      </c>
-      <c r="B491" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>marisahartwig_</t>
-        </is>
-      </c>
-      <c r="B492" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>cierrajak</t>
-        </is>
-      </c>
-      <c r="B493" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>brooklyn_walker24</t>
-        </is>
-      </c>
-      <c r="B494" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>sadegh7867a</t>
-        </is>
-      </c>
-      <c r="B495" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>twfy_s</t>
-        </is>
-      </c>
-      <c r="B496" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>_rion.ando_</t>
-        </is>
-      </c>
-      <c r="B497" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>ana._.tabernaemontana</t>
-        </is>
-      </c>
-      <c r="B498" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>alexa_bee</t>
-        </is>
-      </c>
-      <c r="B499" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>zaalewskki</t>
-        </is>
-      </c>
-      <c r="B500" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>jake.shah_01</t>
-        </is>
-      </c>
-      <c r="B501" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>_.tabler25._</t>
-        </is>
-      </c>
-      <c r="B502" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>marvel_memes1101283</t>
-        </is>
-      </c>
-      <c r="B503" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>champagnenathan2</t>
-        </is>
-      </c>
-      <c r="B504" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>elliottdelaforet</t>
-        </is>
-      </c>
-      <c r="B505" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>natebratta</t>
-        </is>
-      </c>
-      <c r="B506" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>kenzgreenfield</t>
-        </is>
-      </c>
-      <c r="B507" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>alan_gasc</t>
-        </is>
-      </c>
-      <c r="B508" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>koa_335</t>
-        </is>
-      </c>
-      <c r="B509" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>ssg07di</t>
-        </is>
-      </c>
-      <c r="B510" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>_shaffmansha</t>
-        </is>
-      </c>
-      <c r="B511" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>abbieshaw_2266_</t>
-        </is>
-      </c>
-      <c r="B512" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>livvdebacker</t>
-        </is>
-      </c>
-      <c r="B513" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>knop_04</t>
-        </is>
-      </c>
-      <c r="B514" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>irshadkhonone</t>
-        </is>
-      </c>
-      <c r="B515" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>maddielacross4</t>
-        </is>
-      </c>
-      <c r="B516" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>burchamaptsmsu</t>
-        </is>
-      </c>
-      <c r="B517" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>throwbacks_w_kent</t>
-        </is>
-      </c>
-      <c r="B518" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>mariah.brown13</t>
-        </is>
-      </c>
-      <c r="B519" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>notpranavagarwal</t>
-        </is>
-      </c>
-      <c r="B520" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>xx.__angel.___.xx</t>
-        </is>
-      </c>
-      <c r="B521" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>kennedyprker</t>
-        </is>
-      </c>
-      <c r="B522" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>jackson_huntr</t>
-        </is>
-      </c>
-      <c r="B523" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>joshbuko</t>
-        </is>
-      </c>
-      <c r="B524" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>kaospolosan24</t>
-        </is>
-      </c>
-      <c r="B525" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>sophie.ensing</t>
-        </is>
-      </c>
-      <c r="B526" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>sam.woodland_</t>
-        </is>
-      </c>
-      <c r="B527" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>aminn_2424</t>
-        </is>
-      </c>
-      <c r="B528" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>jessii.raee</t>
-        </is>
-      </c>
-      <c r="B529" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>hphall</t>
-        </is>
-      </c>
-      <c r="B530" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>j.b_austin</t>
-        </is>
-      </c>
-      <c r="B531" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>oliviadiuble</t>
-        </is>
-      </c>
-      <c r="B532" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>peribobrosky</t>
-        </is>
-      </c>
-      <c r="B533" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>brysensmith22</t>
-        </is>
-      </c>
-      <c r="B534" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>mariannenovellibell</t>
-        </is>
-      </c>
-      <c r="B535" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>logan.zolinski</t>
-        </is>
-      </c>
-      <c r="B536" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>web.s5</t>
-        </is>
-      </c>
-      <c r="B537" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>_tarahamilton_</t>
-        </is>
-      </c>
-      <c r="B538" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>emily.root02</t>
-        </is>
-      </c>
-      <c r="B539" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>abhishek.agrawal222</t>
-        </is>
-      </c>
-      <c r="B540" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>noahjdunham</t>
-        </is>
-      </c>
-      <c r="B541" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>justina.bloch</t>
-        </is>
-      </c>
-      <c r="B542" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>everynationatmsu</t>
-        </is>
-      </c>
-      <c r="B543" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>breckynbusseymao</t>
-        </is>
-      </c>
-      <c r="B544" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>jubahg132</t>
-        </is>
-      </c>
-      <c r="B545" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>jay__ad22</t>
-        </is>
-      </c>
-      <c r="B546" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>madelinewalther_</t>
-        </is>
-      </c>
-      <c r="B547" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>kelseymae_12</t>
-        </is>
-      </c>
-      <c r="B548" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>rollingloud._ajscotttbabyy</t>
-        </is>
-      </c>
-      <c r="B549" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>kamela.sm1</t>
-        </is>
-      </c>
-      <c r="B550" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>ali.alqamish</t>
-        </is>
-      </c>
-      <c r="B551" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>laura_matthewss_</t>
-        </is>
-      </c>
-      <c r="B552" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>jonah.summerhays</t>
-        </is>
-      </c>
-      <c r="B553" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>mary.andreoli</t>
-        </is>
-      </c>
-      <c r="B554" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>rifalmarley</t>
-        </is>
-      </c>
-      <c r="B555" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>zack_antaya45</t>
-        </is>
-      </c>
-      <c r="B556" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>rydizzle_fo_shizzle</t>
-        </is>
-      </c>
-      <c r="B557" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>chloe.clovers</t>
-        </is>
-      </c>
-      <c r="B558" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>xdevx444</t>
-        </is>
-      </c>
-      <c r="B559" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>adanna.cherie</t>
-        </is>
-      </c>
-      <c r="B560" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>ignaciozuloaga_</t>
-        </is>
-      </c>
-      <c r="B561" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>chaelirubley</t>
-        </is>
-      </c>
-      <c r="B562" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>emmagracehodges</t>
-        </is>
-      </c>
-      <c r="B563" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>rk128717</t>
-        </is>
-      </c>
-      <c r="B564" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>rachael0622</t>
-        </is>
-      </c>
-      <c r="B565" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>patrick_d137</t>
-        </is>
-      </c>
-      <c r="B566" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>jacob.griswold</t>
-        </is>
-      </c>
-      <c r="B567" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>mephist4k</t>
-        </is>
-      </c>
-      <c r="B568" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>laurenchoraz</t>
-        </is>
-      </c>
-      <c r="B569" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>jaysonlatonio</t>
-        </is>
-      </c>
-      <c r="B570" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>jintingjia</t>
-        </is>
-      </c>
-      <c r="B571" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>emily.selke</t>
-        </is>
-      </c>
-      <c r="B572" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>godeyex554</t>
-        </is>
-      </c>
-      <c r="B573" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>___shokh____</t>
-        </is>
-      </c>
-      <c r="B574" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>drewanders09</t>
-        </is>
-      </c>
-      <c r="B575" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>hayley.vedders</t>
-        </is>
-      </c>
-      <c r="B576" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>samammemon</t>
-        </is>
-      </c>
-      <c r="B577" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>jack_.schneider</t>
-        </is>
-      </c>
-      <c r="B578" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>maceypolk</t>
-        </is>
-      </c>
-      <c r="B579" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>destinny.todd19</t>
-        </is>
-      </c>
-      <c r="B580" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>savvannahortiz</t>
-        </is>
-      </c>
-      <c r="B581" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>mr_me_sadhu</t>
-        </is>
-      </c>
-      <c r="B582" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>3_madison_3</t>
-        </is>
-      </c>
-      <c r="B583" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>jackphelanv</t>
-        </is>
-      </c>
-      <c r="B584" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>mkparent</t>
-        </is>
-      </c>
-      <c r="B585" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>firstafather</t>
-        </is>
-      </c>
-      <c r="B586" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>sophiamcgra_19</t>
-        </is>
-      </c>
-      <c r="B587" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>elle_woods65</t>
-        </is>
-      </c>
-      <c r="B588" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>karinazepeda12</t>
-        </is>
-      </c>
-      <c r="B589" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>mfenster705</t>
-        </is>
-      </c>
-      <c r="B590" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>makennabolt</t>
-        </is>
-      </c>
-      <c r="B591" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>peyton.thayer</t>
-        </is>
-      </c>
-      <c r="B592" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>youns_sham</t>
-        </is>
-      </c>
-      <c r="B593" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>jacob.zartman</t>
-        </is>
-      </c>
-      <c r="B594" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>carlosgutimart</t>
-        </is>
-      </c>
-      <c r="B595" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>_ocilocifer_</t>
-        </is>
-      </c>
-      <c r="B596" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>hota.alboss1933</t>
-        </is>
-      </c>
-      <c r="B597" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>max.nakon</t>
-        </is>
-      </c>
-      <c r="B598" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>bor_na110</t>
-        </is>
-      </c>
-      <c r="B599" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>amaaanf</t>
-        </is>
-      </c>
-      <c r="B600" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>adam_swartz._</t>
-        </is>
-      </c>
-      <c r="B601" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>ojoleister</t>
-        </is>
-      </c>
-      <c r="B602" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>dreary_jade</t>
-        </is>
-      </c>
-      <c r="B603" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>oaksmsu</t>
-        </is>
-      </c>
-      <c r="B604" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>elise.roberts_</t>
-        </is>
-      </c>
-      <c r="B605" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>rapudo17</t>
-        </is>
-      </c>
-      <c r="B606" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>naziasyed87</t>
-        </is>
-      </c>
-      <c r="B607" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>hhilda669</t>
-        </is>
-      </c>
-      <c r="B608" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>5862.isaac</t>
-        </is>
-      </c>
-      <c r="B609" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>abdoutkd</t>
-        </is>
-      </c>
-      <c r="B610" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>max_hotta</t>
-        </is>
-      </c>
-      <c r="B611" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>david_garner22</t>
-        </is>
-      </c>
-      <c r="B612" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>drgreg24</t>
-        </is>
-      </c>
-      <c r="B613" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>ali.hader45</t>
-        </is>
-      </c>
-      <c r="B614" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>b.rkmorrow</t>
-        </is>
-      </c>
-      <c r="B615" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>shafqatraja555</t>
-        </is>
-      </c>
-      <c r="B616" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>audrey_marek</t>
-        </is>
-      </c>
-      <c r="B617" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/msu.roomme.xlsx
+++ b/Marketing/msu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B405"/>
+  <dimension ref="A1:B342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>chisholm_andrew17</t>
+          <t>abbyworley_</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ojoleister</t>
+          <t>wilham_lahia</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>_sarahhdaviss_</t>
+          <t>littledrummermom</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>amygcowan</t>
+          <t>britney.brigham</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>xabu_khan</t>
+          <t>natalie.stnr_</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cookie_baugh</t>
+          <t>bellaedepaul</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>msulawns</t>
+          <t>chloe.kingsley</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>angelicahabib8</t>
+          <t>jessicaherber</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cross.cooper</t>
+          <t>calebbeebe</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>carrigan_mcgraw</t>
+          <t>mightymugs</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>khodaali94_</t>
+          <t>laneburd</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>avaarwady</t>
+          <t>evelina_alex_1</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>elisedoureen</t>
+          <t>jacie.walden</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>adina.peysakhov</t>
+          <t>adam_roehring</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>im_juliesal</t>
+          <t>ashley_7104</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>yuvraj_shah412</t>
+          <t>eliannaturley</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>everynationatmsu</t>
+          <t>kirasaroken</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>janetkstavy</t>
+          <t>becca_salmonson</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>evelyngrimmm</t>
+          <t>codyliao0625</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>guedesjul</t>
+          <t>sienna_leonardi</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,2207 +648,2207 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>kspetsu</t>
+          <t>lillietee49</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bellaedepaul</t>
+          <t>1tarekkkk1</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>marii.ice</t>
+          <t>andi_evans_619</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>gcaw24</t>
+          <t>sulemanraja569</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>paytonbattle._</t>
+          <t>drgreg24</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>jenboucher3</t>
+          <t>makaylaabrynn</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>zadekazziha</t>
+          <t>kacajix124</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ellakruschka</t>
+          <t>_.mackenzie.t._</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>shivkap1</t>
+          <t>lucasgentry5_</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>natalie.stnr_</t>
+          <t>edie.pawlak</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>lolo.klf</t>
+          <t>maggiematsonn</t>
         </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>okangormez9</t>
+          <t>leefboy</t>
         </is>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>darshil_04</t>
+          <t>abbyforthh</t>
         </is>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>yasser.ah16</t>
+          <t>jsssssbs</t>
         </is>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>julian_evin_je</t>
+          <t>jenny_choi14</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>kelly.a.kroll</t>
+          <t>macey.tenbrink</t>
         </is>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>natalie__lorenz</t>
+          <t>zoerbland</t>
         </is>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>adrianamae._</t>
+          <t>nicolette.evans19</t>
         </is>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cody_farwell</t>
+          <t>martha_john357</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>norbertolamenca</t>
+          <t>teagmartin</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>laurenchoraz</t>
+          <t>ben_hepp5</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>jessicaherber</t>
+          <t>alex.orozco33</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>alyssasmouthers</t>
+          <t>gwenyth2024</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>olivia.wells74</t>
+          <t>michael.nelsonn</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>hamid.mahin.fallah</t>
+          <t>elle_woods65</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>jesse.bunch</t>
+          <t>_maryann_derr2022</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ashley221442</t>
+          <t>mandycarilyn</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>kkosmu</t>
+          <t>emmaallnnn</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>skdaum2</t>
+          <t>maddielacross4</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sophiamcgra_19</t>
+          <t>shashank_pagadala_</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>richard_molinelli</t>
+          <t>max.nakon</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>brhoo.my0</t>
+          <t>bella.crist1</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>tinamarieminar</t>
+          <t>amelia.spartangirl25</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>stelllahenderson</t>
+          <t>brune_celeste</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>maggiematsonn</t>
+          <t>tessahilobuk</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>xoxoabbyb</t>
+          <t>olivia_gilcher</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>diby2115</t>
+          <t>will.italia55</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>jacie.walden</t>
+          <t>jesse.bunch</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>avasilarski</t>
+          <t>beckyangliss</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>maslankamaslanka881</t>
+          <t>savvannahortiz</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>jamie.le1</t>
+          <t>rebecca.m.wells</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>maycie.faye</t>
+          <t>jonathonbiter</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>___shokh____</t>
+          <t>mallory.bezanis</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>lillymc331</t>
+          <t>julialavallee7</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>drewj_williams</t>
+          <t>ojoleister</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>maddielacross4</t>
+          <t>kris_b_vermeulen</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>kelly.bussis</t>
+          <t>michellesfikas</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>shashank_pagadala_</t>
+          <t>neeyam_m</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>alys.mathew</t>
+          <t>dougie.cowann</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>lucasshampo</t>
+          <t>csq._.95</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>haleybutkovich</t>
+          <t>kenzrando</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>juhbenitah</t>
+          <t>ava_lawson04</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sahil_evil_hunter</t>
+          <t>hunter_shoemaker01</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>megrhalpin</t>
+          <t>jgretznerd</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>a.j.1031</t>
+          <t>chaelirubley</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>cass.1227</t>
+          <t>urvi.jalan</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>tutilhossan2</t>
+          <t>haley_973</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>danaarowee</t>
+          <t>hota.alboss1933</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>macv__27</t>
+          <t>aamukta23</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>jojo.s199s4</t>
+          <t>_3wess</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>kristi.searle</t>
+          <t>sarah_rudman_</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>santosbeats2k21</t>
+          <t>dylanknotts5905</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>alexandra.levra</t>
+          <t>rydizzle_fo_shizzle</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>buhlmanree</t>
+          <t>taeywright</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>kacajix124</t>
+          <t>oaksmsu</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>madisonwittbrodt</t>
+          <t>norbertolamenca</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>nicoleszum</t>
+          <t>jennic410</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>faye.k.mcinerney</t>
+          <t>sammythebennett</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>mmcgriddles</t>
+          <t>xsophieq</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>audrey_marek</t>
+          <t>annemurphy305</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>samanthaahendrix</t>
+          <t>ariana._straus</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>carolynmcgowan13</t>
+          <t>nickd0bs</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>millennium_mizz</t>
+          <t>arianalacoursier</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>caljack</t>
+          <t>anna.sumampow</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>caden.pitsch</t>
+          <t>cass.1227</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>rz.rhmat</t>
+          <t>david_garner22</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>gracyjanetomek</t>
+          <t>knop_04</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>maryamhamdi22</t>
+          <t>ckm04</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>scarlette27</t>
+          <t>natalieginnodo</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>elizadelwiche</t>
+          <t>sarahstauffenberg</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ava_lawson04</t>
+          <t>msugonewild</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>yefesok440</t>
+          <t>yuvraj_shah412</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ryangriffin._</t>
+          <t>conrkennedy</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>trinitymitchell_04</t>
+          <t>ellabrakke</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>twfy_s</t>
+          <t>audreylyne</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>liam.watt19</t>
+          <t>ifatemeh_7889</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ryleecarver</t>
+          <t>lavs008</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>amanjaswal94</t>
+          <t>cookie_baugh</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>drewn10</t>
+          <t>desireetuohy</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>aten.a_mi</t>
+          <t>nicole.hudson_</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>allydoeds</t>
+          <t>susanhunyor</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>quinn_dahl1</t>
+          <t>alex_bonahoom</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ann.elisee</t>
+          <t>carolineseidd</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>alyssanavin</t>
+          <t>darklie444</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>geeteshgirase7</t>
+          <t>dand.an2017</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>soogar_pf</t>
+          <t>cc.ambassador4</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>itsgracemac</t>
+          <t>becki1177</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>irshadkhonone</t>
+          <t>heybro372021</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>neba_02</t>
+          <t>_megan.mcguire</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>michael.nelsonn</t>
+          <t>philip_tangalos</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>nolajc</t>
+          <t>seth_mccomas</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>anna_bidolli</t>
+          <t>en.aweng</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>christinaranguren</t>
+          <t>lucyjennettee</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>laura_matthewss_</t>
+          <t>maggie.rkj</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>josh.schor</t>
+          <t>justfin.png</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>marastevens3</t>
+          <t>adds_the_gremlin</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>maruskin.abby</t>
+          <t>ryangriffin._</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>sadiehayman</t>
+          <t>riley.mcdonald2</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>idno0003</t>
+          <t>wafa.younes.94</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>yogeshpatil9391</t>
+          <t>autumn.sims20</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>taeywright</t>
+          <t>detr0it_j</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ry_dayungen</t>
+          <t>avalove04</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>arjun_batra7</t>
+          <t>its.treasureeee</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>julialavallee7</t>
+          <t>cenatob615</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>sofieurena</t>
+          <t>123cutecritters</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>cc.ambassador4</t>
+          <t>brendan_mackey_</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ryleigh_neal_</t>
+          <t>shreyasathreya1</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>amaaanf</t>
+          <t>nat.lenny</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>anvita.04</t>
+          <t>anuj_jadhav903</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>kate.lossing</t>
+          <t>ashley221442</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>natalie_tobey</t>
+          <t>alexa_bee</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>joli_pr20</t>
+          <t>m.gurr26</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>kaleb_m_15</t>
+          <t>hannahhart_12</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>mymona_islam</t>
+          <t>darhoff187</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>anuj_jadhav903</t>
+          <t>_cameroncargan</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>dony_a6569</t>
+          <t>devon_meade22</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>cateleonardd</t>
+          <t>ryleecarver</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>darhoff187</t>
+          <t>janjo.banjo</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>jazlynncowling</t>
+          <t>loren.hoffman</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>hannahhart_12</t>
+          <t>mulvihill_brody</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>sam.harmon.42</t>
+          <t>_taylor.merritt</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>lavinia.panetti</t>
+          <t>kelseyherdus</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>hunter_shoemaker01</t>
+          <t>dre.gatlin</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>wambuifay0</t>
+          <t>kristi.searle</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>corablatchford</t>
+          <t>mckenzings</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>kissa.rmy66</t>
+          <t>hannah.riffel</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>shane.rogan</t>
+          <t>liv.schellingg</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>giannaannoni</t>
+          <t>imkaboom</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>sashastoyanovich10</t>
+          <t>emma.palazzolo</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>royaa__radman</t>
+          <t>seandzw</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>lisiexo</t>
+          <t>erimac24</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>mahbub20117466</t>
+          <t>audrey.simenz</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>joynal7825</t>
+          <t>elliiecook</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>audrey.simenz</t>
+          <t>mcschwarz21</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>kathleenmccownn</t>
+          <t>ncharters04</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>urvi.jalan</t>
+          <t>juhbenitah</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>_maryann_derr2022</t>
+          <t>mhaywood813</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>alexandra.ostrowski</t>
+          <t>_.tabler25._</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>foriv49423</t>
+          <t>abbygal1017</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>cagietzen</t>
+          <t>kathleenmccownn</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>orrell.daniel</t>
+          <t>sofieurena</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>tessturcco</t>
+          <t>loganweltonn</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>amandagcarroll</t>
+          <t>itsgracemac</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>dougie.cowann</t>
+          <t>arinahaghghi</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ashleighberghorst</t>
+          <t>delaneymuncy</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>hannaherpelding</t>
+          <t>adina.peysakhov</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>shreyasathreya1</t>
+          <t>jared.surian</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>alexa_bee</t>
+          <t>imr9308</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>icadik420</t>
+          <t>cagietzen</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>macey.tenbrink</t>
+          <t>laynie.tipton</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>thasimsibi</t>
+          <t>maxrehn842</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>hhilda669</t>
+          <t>em_phillips92</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>_rion.ando_</t>
+          <t>andrewpalmer7090</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>youns_sham</t>
+          <t>taya_jenison</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>taetae_chilenitok</t>
+          <t>trevor_wabbi</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>pallisaatvik</t>
+          <t>kiley.conway</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>jonathonbiter</t>
+          <t>reynolds_dylan1234</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>calvindowker</t>
+          <t>william_083___</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>gwenyth2024</t>
+          <t>sadiehayman</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>justina.bloch</t>
+          <t>maddyimills</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>jejacquess</t>
+          <t>sbascha</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>bekahweiskopf</t>
+          <t>therapymom4</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>natebratta</t>
+          <t>tessturcco</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>aubreybukosky</t>
+          <t>lawanitah</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>udeshtharaka</t>
+          <t>laura_matthewss_</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>mwhitefoot21</t>
+          <t>lucasm049</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>alexa._.mich</t>
+          <t>emma.markham7</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>mariya_panafidina</t>
+          <t>lynseyzundel</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>alexamoresss</t>
+          <t>mikayla.bowen</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>maceypolk</t>
+          <t>surabhi_y_g</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>lauren_molnarr</t>
+          <t>sharkboyfish</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>kentonlyons_</t>
+          <t>neba_02</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ajco_1905</t>
+          <t>_purple_potato</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>delaneymuncy</t>
+          <t>chimmyoriana</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>zach_franz</t>
+          <t>chloe.clovers</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>laquinta_001</t>
+          <t>finn.moher</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>juliahale24</t>
+          <t>yasser.ah16</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>sydneymasserant</t>
+          <t>xdevx444</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>fasono5953</t>
+          <t>aynslee.g</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>julianaschroederr</t>
+          <t>calista.goluba</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>stellabolkema</t>
+          <t>alec.demas</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>abbygal1017</t>
+          <t>joe.ryder1</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>miamiarnp</t>
+          <t>jake.shah_01</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>sofia_traver</t>
+          <t>tzachs_</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>elliottob15_</t>
+          <t>haleigh_strouse</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>levelheaded.j</t>
+          <t>_rion.ando_</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>123cutecritters</t>
+          <t>albertt_lee193</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>dyk.han</t>
+          <t>5kennedy</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>hamid57439</t>
+          <t>maceypolk</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>kiyahburns</t>
+          <t>adrianamae._</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>en.aweng</t>
+          <t>avaarwady</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ie.msu</t>
+          <t>jacob_jp15</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>_samanthadraper</t>
+          <t>noahpatt14</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>allisonchickk</t>
+          <t>jacob.griswold</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>_jcdoss18_</t>
+          <t>rileyholtzz</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>_laur.10_</t>
+          <t>cindyyzou</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>karinazepeda12</t>
+          <t>qyzmms</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>nathan.gerrow</t>
+          <t>anat.pissetzky</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>zaalewskki</t>
+          <t>annabelle.whittle_</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>jacob_jp15</t>
+          <t>nicoleszum</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>conorzeutzius</t>
+          <t>shanze_o</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>alibaumgartner</t>
+          <t>wellnessbyphoebe</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>goyeongu6444</t>
+          <t>tyler_hart9</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>eggs8888</t>
+          <t>carson_coffman10</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>jackson_huntr</t>
+          <t>nolajc</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>brendan.furnari</t>
+          <t>syd_schulz</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>alyos_ha1</t>
+          <t>skdaum2</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>eliannaturley</t>
+          <t>kyla._.mari</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>_sara.jean_</t>
+          <t>ethan.long.duet</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>kelseymae_12</t>
+          <t>jannatbaswani</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>hope_dzik</t>
+          <t>chl0eleclerc</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>joshuaterrill3</t>
+          <t>madelineebrown</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>aldenheyboer</t>
+          <t>heatherkubiak</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>jamiebmeadows</t>
+          <t>jj_gray77</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ashley._.minard</t>
+          <t>avaawas</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>zoerbland</t>
+          <t>_imarshall</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>kenzgreenfield</t>
+          <t>skye_snyder_1</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>breckynbusseymao</t>
+          <t>lindseyguza</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>carolineseidd</t>
+          <t>tessa.mf</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ana._.tabernaemontana</t>
+          <t>abbeybiedigerr</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>alyssabirmele_</t>
+          <t>lexisolizz</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>roy.d2</t>
+          <t>janetkstavy</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>cbell2197</t>
+          <t>monacoqueenmadz</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>sammy.maday</t>
+          <t>trinitymitchell_04</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>sadegh7867a</t>
+          <t>im_juliesal</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>shafqatraja555</t>
+          <t>alyssaschor</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>jonah.summerhays</t>
+          <t>lexi_hosmer</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>bibatema5</t>
+          <t>b.dooze</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>john.murii</t>
+          <t>kenzgreenfield</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>kaylaruby1219</t>
+          <t>joey_heilman</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>saanvi.1i</t>
+          <t>sashastoyanovich10</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>hvdghlb68</t>
+          <t>vexx_isiah</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>landon_marchione</t>
+          <t>grant__males</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>marlamariefinn</t>
+          <t>alyssabirmele_</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>bell_a2901</t>
+          <t>anna.flintoft</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ccleary55</t>
+          <t>libbydoree</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>extra_nrt</t>
+          <t>drewj_williams</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>jonathan_stavnes</t>
+          <t>wi.lliamwykes</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>marisahartwig_</t>
+          <t>alexa._.mich</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>kundankumar_8</t>
+          <t>xoxoabbyb</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>gregory.buck1</t>
+          <t>rilwim</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>em_phillips92</t>
+          <t>lavinia.panetti</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>desireetuohy</t>
+          <t>stelllahenderson</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>cameronbloom__</t>
+          <t>frontierolynn</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>steffens_03</t>
+          <t>anvita.04</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>destinny.todd19</t>
+          <t>yaserkarox</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>junior.colon1891</t>
+          <t>laurenchoraz</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>jackphelanv</t>
+          <t>navgon_carlos</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>brooklyn_walker24</t>
+          <t>jackson.walton28</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>emmalacrosss</t>
+          <t>joshbuko</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>jamalhoshen89</t>
+          <t>charlotteedeiness</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>noahlovy_</t>
+          <t>maruskin.abby</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>jahid.5900</t>
+          <t>katiedykema54</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>mary.andreoli</t>
+          <t>brook3bennett</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ellie.peitz</t>
+          <t>olivia.wells74</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>felicia.skwirblies</t>
+          <t>juliahale24</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>leefboy</t>
+          <t>jezz.sky</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>landonsunn</t>
+          <t>amita22su</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>jj_gray77</t>
+          <t>pchick99</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>carolinemsu2023</t>
+          <t>alonna_w4</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>shcha22</t>
+          <t>toomis155</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>yamok2004</t>
+          <t>emmagracehodges</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>farooq3259</t>
+          <t>allydoeds</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>kylie_shane3</t>
+          <t>utemel23</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>sohan_3444</t>
+          <t>caljack</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>kennedyprker</t>
+          <t>jlr52104</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>cc.ambassador7</t>
+          <t>marisahartwig_</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>rebeccaprempeh</t>
+          <t>aedmsu</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>andrewferj</t>
+          <t>stellabolkema</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>emily.root02</t>
+          <t>julianaschroederr</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>dawsonclark611</t>
+          <t>ethanh377</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ellabeck6545</t>
+          <t>oliviapuzzuoli</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>adam_swartz._</t>
+          <t>mariah.brown13</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>qyzmms</t>
+          <t>tristan.bakker17</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>rom1.pltr</t>
+          <t>loricarpenterr</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>breecg</t>
+          <t>natalie_tobey</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>matt.vendal</t>
+          <t>godeyex554</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>rk128717</t>
+          <t>jessii.raee</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>tayapride</t>
+          <t>ramya.ram04</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>bellah414</t>
+          <t>josh1miller</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>cordeliakraus</t>
+          <t>angelicahabib8</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>jett_edson</t>
+          <t>iowa.state2026</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>reckergrace</t>
+          <t>katia.zhao</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>triciabyrne1</t>
+          <t>prabha_45</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>msu_south_case</t>
+          <t>samigorton</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>deanboom22</t>
+          <t>_.katiejohnson._</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>maria_dunn12</t>
+          <t>catastrophic_sunsets</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>katie.guse04</t>
+          <t>_sarahhdaviss_</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>elliottdelaforet</t>
+          <t>msu_gssa</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>hajer.alsalman</t>
+          <t>madison_goodyke</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>kris_b_vermeulen</t>
+          <t>_dinayounes</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>audreylyne</t>
+          <t>eggs8888</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>loringjill</t>
+          <t>nathanmcd25</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>jackson.walton28</t>
+          <t>wambuifay0</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>cass1.227</t>
+          <t>ava.ferguson8</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>joe.ryder1</t>
+          <t>joshturner.05</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>tyler_hart9</t>
+          <t>evelyngrimmm</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>tracyendres</t>
+          <t>tito.s.m</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>madievansss</t>
+          <t>richard_molinelli</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>navgon_carlos</t>
+          <t>_ocilocifer_</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>usamaawan878</t>
+          <t>asoooomusbah</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>toomis155</t>
+          <t>mariya_panafidina</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>anna.flintoft</t>
+          <t>kelly.a.kroll</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>khashi4430</t>
+          <t>jilskufca</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>haleyearglee</t>
+          <t>amaritorresss</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>meagan_rock17</t>
+          <t>johhny_b123</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>prabha_45</t>
+          <t>masonjennings33</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>evanhackstock</t>
+          <t>straubyk</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>19.76389</t>
+          <t>avabeatty_</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>zeroburocracia</t>
+          <t>khchachar7227</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,640 +3848,10 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>bobby_stutelberg_</t>
+          <t>haasinib_</t>
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>chloe.kingsley</t>
-        </is>
-      </c>
-      <c r="B343" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>mariah.brown13</t>
-        </is>
-      </c>
-      <c r="B344" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>adam_roehring</t>
-        </is>
-      </c>
-      <c r="B345" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>alecia.haney</t>
-        </is>
-      </c>
-      <c r="B346" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>monacoqueenmadz</t>
-        </is>
-      </c>
-      <c r="B347" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>alonna_w4</t>
-        </is>
-      </c>
-      <c r="B348" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>sammythebennett</t>
-        </is>
-      </c>
-      <c r="B349" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>bellamarginet</t>
-        </is>
-      </c>
-      <c r="B350" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>kyla._.mari</t>
-        </is>
-      </c>
-      <c r="B351" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>kellyraft</t>
-        </is>
-      </c>
-      <c r="B352" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>skye_snyder_1</t>
-        </is>
-      </c>
-      <c r="B353" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>emma.palazzolo</t>
-        </is>
-      </c>
-      <c r="B354" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>dre.gatlin</t>
-        </is>
-      </c>
-      <c r="B355" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>aryan_yellisetti</t>
-        </is>
-      </c>
-      <c r="B356" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>marisasteenbergh</t>
-        </is>
-      </c>
-      <c r="B357" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>aashkashahh_</t>
-        </is>
-      </c>
-      <c r="B358" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>alec.demas</t>
-        </is>
-      </c>
-      <c r="B359" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>lerc_studio_mandalas</t>
-        </is>
-      </c>
-      <c r="B360" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>bibianna.rodriguez</t>
-        </is>
-      </c>
-      <c r="B361" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>littledrummermom</t>
-        </is>
-      </c>
-      <c r="B362" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>mariannenovellibell</t>
-        </is>
-      </c>
-      <c r="B363" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>shade_grey_wayne</t>
-        </is>
-      </c>
-      <c r="B364" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>chaelirubley</t>
-        </is>
-      </c>
-      <c r="B365" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>olivia.hagar</t>
-        </is>
-      </c>
-      <c r="B366" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>finn.moher</t>
-        </is>
-      </c>
-      <c r="B367" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>chloe.clovers</t>
-        </is>
-      </c>
-      <c r="B368" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>noahpatt14</t>
-        </is>
-      </c>
-      <c r="B369" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>its_rachael16</t>
-        </is>
-      </c>
-      <c r="B370" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>joshbuko</t>
-        </is>
-      </c>
-      <c r="B371" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>olivia_gilcher</t>
-        </is>
-      </c>
-      <c r="B372" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>neeyam_m</t>
-        </is>
-      </c>
-      <c r="B373" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>kevin.halsband</t>
-        </is>
-      </c>
-      <c r="B374" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>msugonewild</t>
-        </is>
-      </c>
-      <c r="B375" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>msu_gssa</t>
-        </is>
-      </c>
-      <c r="B376" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>martha_john357</t>
-        </is>
-      </c>
-      <c r="B377" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>lillyskaryd</t>
-        </is>
-      </c>
-      <c r="B378" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>ajparsons12</t>
-        </is>
-      </c>
-      <c r="B379" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>synthwaveeee</t>
-        </is>
-      </c>
-      <c r="B380" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>macri_yas</t>
-        </is>
-      </c>
-      <c r="B381" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>makaylaabrynn</t>
-        </is>
-      </c>
-      <c r="B382" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>mer.n.k</t>
-        </is>
-      </c>
-      <c r="B383" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>patrick.hogan9</t>
-        </is>
-      </c>
-      <c r="B384" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>3_madison_3</t>
-        </is>
-      </c>
-      <c r="B385" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>mfellows417</t>
-        </is>
-      </c>
-      <c r="B386" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>arianalacoursier</t>
-        </is>
-      </c>
-      <c r="B387" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>umer43696</t>
-        </is>
-      </c>
-      <c r="B388" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>detr0it_j</t>
-        </is>
-      </c>
-      <c r="B389" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>anna.sumampow</t>
-        </is>
-      </c>
-      <c r="B390" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>natalieworwa</t>
-        </is>
-      </c>
-      <c r="B391" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>lukesmith14_</t>
-        </is>
-      </c>
-      <c r="B392" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>delaney_ej</t>
-        </is>
-      </c>
-      <c r="B393" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>bigten.2026</t>
-        </is>
-      </c>
-      <c r="B394" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>conrkennedy</t>
-        </is>
-      </c>
-      <c r="B395" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>mdsojib8700</t>
-        </is>
-      </c>
-      <c r="B396" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>poohbearworm</t>
-        </is>
-      </c>
-      <c r="B397" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>_3wess</t>
-        </is>
-      </c>
-      <c r="B398" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>cierrajak</t>
-        </is>
-      </c>
-      <c r="B399" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>brook3bennett</t>
-        </is>
-      </c>
-      <c r="B400" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>_.katiejohnson._</t>
-        </is>
-      </c>
-      <c r="B401" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>block36</t>
-        </is>
-      </c>
-      <c r="B402" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>nathanmcd25</t>
-        </is>
-      </c>
-      <c r="B403" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>teagmartin</t>
-        </is>
-      </c>
-      <c r="B404" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>hopepoliti_</t>
-        </is>
-      </c>
-      <c r="B405" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/msu.roomme.xlsx
+++ b/Marketing/msu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B342"/>
+  <dimension ref="A1:B317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>abbyworley_</t>
+          <t>srt.slime422</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>wilham_lahia</t>
+          <t>_ashleystone5</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>littledrummermom</t>
+          <t>brayden.2205</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>britney.brigham</t>
+          <t>ryleecarver</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>natalie.stnr_</t>
+          <t>alanajohnson630</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bellaedepaul</t>
+          <t>evaglogan</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>chloe.kingsley</t>
+          <t>jackson.nh</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jessicaherber</t>
+          <t>love.jaeee</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>calebbeebe</t>
+          <t>randirosebear</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mightymugs</t>
+          <t>sydneyingber</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>laneburd</t>
+          <t>rachelspringr</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>evelina_alex_1</t>
+          <t>reesemillerr11</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jacie.walden</t>
+          <t>michaeldreon</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>adam_roehring</t>
+          <t>liz.maes</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ashley_7104</t>
+          <t>loveluna324</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>eliannaturley</t>
+          <t>ali.saraeb</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>kirasaroken</t>
+          <t>_pvuly_</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>becca_salmonson</t>
+          <t>zach.degen</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>codyliao0625</t>
+          <t>therapymom4</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sienna_leonardi</t>
+          <t>aubreyglowacki</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,1107 +648,1107 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>lillietee49</t>
+          <t>nicole.mclaughlin.56</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1tarekkkk1</t>
+          <t>noa.isufi</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>andi_evans_619</t>
+          <t>anna.flintoft</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sulemanraja569</t>
+          <t>aruthurshpoooksh</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>drgreg24</t>
+          <t>malia.holmes_</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>makaylaabrynn</t>
+          <t>panchalee.__</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>kacajix124</t>
+          <t>breecg</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>_.mackenzie.t._</t>
+          <t>blakemischley</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>lucasgentry5_</t>
+          <t>jsing29</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>edie.pawlak</t>
+          <t>papermarkup</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>maggiematsonn</t>
+          <t>e.dean_27</t>
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>leefboy</t>
+          <t>nataliestubbss</t>
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>abbyforthh</t>
+          <t>chase.tfg</t>
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>jsssssbs</t>
+          <t>maggiemotz</t>
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>jenny_choi14</t>
+          <t>billiej36</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>macey.tenbrink</t>
+          <t>evan.parker3</t>
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>zoerbland</t>
+          <t>siobhan_whalen</t>
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>nicolette.evans19</t>
+          <t>alyaldrichh</t>
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>martha_john357</t>
+          <t>zach_balcoff</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>teagmartin</t>
+          <t>mickaelasch</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ben_hepp5</t>
+          <t>sophia_jac11</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>alex.orozco33</t>
+          <t>nathan_sinawi</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>gwenyth2024</t>
+          <t>eedika24</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>michael.nelsonn</t>
+          <t>zach__hilbert</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>elle_woods65</t>
+          <t>joshj1678</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>_maryann_derr2022</t>
+          <t>heidiichang</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>mandycarilyn</t>
+          <t>dozer1121</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>emmaallnnn</t>
+          <t>gabby.longoria</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>maddielacross4</t>
+          <t>sam_kruzer</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>shashank_pagadala_</t>
+          <t>carsonyogurt</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>max.nakon</t>
+          <t>drew_drabik</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>bella.crist1</t>
+          <t>amelialdalton</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>amelia.spartangirl25</t>
+          <t>maliyahsigler</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>brune_celeste</t>
+          <t>mahir_18</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>tessahilobuk</t>
+          <t>audreyllewellyn</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>olivia_gilcher</t>
+          <t>kmferg7</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>will.italia55</t>
+          <t>datwheatleyboi</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>jesse.bunch</t>
+          <t>zach_noble13</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>beckyangliss</t>
+          <t>spartyscloset</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>savvannahortiz</t>
+          <t>madelynn.mcneil</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>rebecca.m.wells</t>
+          <t>mariannefellmanowens</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>jonathonbiter</t>
+          <t>nightkidz999</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>mallory.bezanis</t>
+          <t>samkrombergjr</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>julialavallee7</t>
+          <t>kassidy.sgroi</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ojoleister</t>
+          <t>mitch_murdie</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>kris_b_vermeulen</t>
+          <t>alexispassannante</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>michellesfikas</t>
+          <t>jspratling15</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>neeyam_m</t>
+          <t>sarah.frances0</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>dougie.cowann</t>
+          <t>dkay220</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>csq._.95</t>
+          <t>healinghandsspa_mi</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>kenzrando</t>
+          <t>kjseifert7</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ava_lawson04</t>
+          <t>genesisluv999</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>hunter_shoemaker01</t>
+          <t>weheartmars</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>jgretznerd</t>
+          <t>ezkkz</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>chaelirubley</t>
+          <t>vic._tori.aa</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>urvi.jalan</t>
+          <t>skymert_insta</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>haley_973</t>
+          <t>briannamarie.20</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>hota.alboss1933</t>
+          <t>ellysestumpf</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>aamukta23</t>
+          <t>stone_armory</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>_3wess</t>
+          <t>mikeohearn168</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>sarah_rudman_</t>
+          <t>kennedy2073</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>dylanknotts5905</t>
+          <t>aliannacaelyn</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>rydizzle_fo_shizzle</t>
+          <t>noahbrewer7140</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>taeywright</t>
+          <t>praveen_a06</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>oaksmsu</t>
+          <t>j_2.3t</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>norbertolamenca</t>
+          <t>nistor.roxana156</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>jennic410</t>
+          <t>liz_v09</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sammythebennett</t>
+          <t>second_house_kid</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>xsophieq</t>
+          <t>therealgsu</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>annemurphy305</t>
+          <t>eemmalauu</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ariana._straus</t>
+          <t>ethanrg_20</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>nickd0bs</t>
+          <t>vladimir.shpunt</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>arianalacoursier</t>
+          <t>mltrask05</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>anna.sumampow</t>
+          <t>joelle.henke</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>cass.1227</t>
+          <t>maxbbergman</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>david_garner22</t>
+          <t>logan.gilbert999</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>knop_04</t>
+          <t>hopexox14</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ckm04</t>
+          <t>hbazzi.1</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>natalieginnodo</t>
+          <t>diana_puert20</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>sarahstauffenberg</t>
+          <t>natscolletti</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>msugonewild</t>
+          <t>wcp_iv</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>yuvraj_shah412</t>
+          <t>seangraves__</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>conrkennedy</t>
+          <t>s0ph1e24</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ellabrakke</t>
+          <t>shelbysalame</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>audreylyne</t>
+          <t>michmischley</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ifatemeh_7889</t>
+          <t>mianikolicc</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>lavs008</t>
+          <t>annaemchh</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>cookie_baugh</t>
+          <t>chris.bollmann</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>desireetuohy</t>
+          <t>ritumaliknv</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>nicole.hudson_</t>
+          <t>genevieveorlewicz</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>susanhunyor</t>
+          <t>maxkahann</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>alex_bonahoom</t>
+          <t>budnick32</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>carolineseidd</t>
+          <t>kate_merdinian</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>darklie444</t>
+          <t>michael_lentt</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>dand.an2017</t>
+          <t>nelly_ortiz06</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>cc.ambassador4</t>
+          <t>gabby.martezz</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>becki1177</t>
+          <t>mmatthews.5</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>heybro372021</t>
+          <t>oliviagialanella</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>_megan.mcguire</t>
+          <t>allieb06_</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>philip_tangalos</t>
+          <t>emmahellberg0</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>seth_mccomas</t>
+          <t>_elyse.c</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>en.aweng</t>
+          <t>yk_enele</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>lucyjennettee</t>
+          <t>nina.bee.22</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>maggie.rkj</t>
+          <t>kenzie_myers59</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>justfin.png</t>
+          <t>miabalcerzak</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>adds_the_gremlin</t>
+          <t>katy_the_runner</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ryangriffin._</t>
+          <t>sophia_hogervorst</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>riley.mcdonald2</t>
+          <t>aaaaari_b</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>wafa.younes.94</t>
+          <t>nhs.sanp</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>autumn.sims20</t>
+          <t>allison.waybrant</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>detr0it_j</t>
+          <t>derek.walkington</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>avalove04</t>
+          <t>hugh_watters24</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>its.treasureeee</t>
+          <t>julles.hendrix</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>cenatob615</t>
+          <t>swetard</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>123cutecritters</t>
+          <t>mariamm0413</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>brendan_mackey_</t>
+          <t>bassel.ghoury</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>shreyasathreya1</t>
+          <t>jacob.mccomb</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>nat.lenny</t>
+          <t>eddielewisrayes</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>anuj_jadhav903</t>
+          <t>allyfirmiss</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ashley221442</t>
+          <t>saniyahnino</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>alexa_bee</t>
+          <t>dani.abouzahr</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>m.gurr26</t>
+          <t>joyannah26</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>hannahhart_12</t>
+          <t>trevorhorvath4</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>darhoff187</t>
+          <t>thatsforsure_</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>_cameroncargan</t>
+          <t>mp3ruma1</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>devon_meade22</t>
+          <t>reesejoleyyy</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ryleecarver</t>
+          <t>kristina.nville</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>janjo.banjo</t>
+          <t>gabbyjrussell</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>loren.hoffman</t>
+          <t>_davidsimek</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>mulvihill_brody</t>
+          <t>martinez.sofia1</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>_taylor.merritt</t>
+          <t>emmasamulski</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>kelseyherdus</t>
+          <t>_anya.ng</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>dre.gatlin</t>
+          <t>_sofiazalewski</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>kristi.searle</t>
+          <t>gracestover</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>mckenzings</t>
+          <t>cam_xc_101</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>hannah.riffel</t>
+          <t>sam.groszkiewicz</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>liv.schellingg</t>
+          <t>mattschamper_</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>imkaboom</t>
+          <t>ethan.hammond1</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>emma.palazzolo</t>
+          <t>kassidycustard</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>seandzw</t>
+          <t>jess.kemnitz3</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>erimac24</t>
+          <t>oliviagmclaughlin</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>audrey.simenz</t>
+          <t>emma.rileyyy</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>elliiecook</t>
+          <t>chloe.marsh2005</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>mcschwarz21</t>
+          <t>gwenyth2024</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ncharters04</t>
+          <t>aadhya_pa</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>juhbenitah</t>
+          <t>randimacleod</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>mhaywood813</t>
+          <t>treytarkington7</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>_.tabler25._</t>
+          <t>cathy.myers.16</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>abbygal1017</t>
+          <t>gracetiernan_</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>kathleenmccownn</t>
+          <t>ryanpball</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>sofieurena</t>
+          <t>adrihowland</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>loganweltonn</t>
+          <t>kaysharon664</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>itsgracemac</t>
+          <t>warner_owen8</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>arinahaghghi</t>
+          <t>blinneee</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>delaneymuncy</t>
+          <t>meadowcreekflats</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>adina.peysakhov</t>
+          <t>bnav317</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>jared.surian</t>
+          <t>mujilingwu</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>imr9308</t>
+          <t>treylcm3</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>cagietzen</t>
+          <t>raghavbatra___</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>laynie.tipton</t>
+          <t>ajconrad05</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>maxrehn842</t>
+          <t>ayranp_</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>em_phillips92</t>
+          <t>jbenedek31</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>andrewpalmer7090</t>
+          <t>lucyheystekk1</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>taya_jenison</t>
+          <t>lilyhornik</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>trevor_wabbi</t>
+          <t>jonniii.m</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>kiley.conway</t>
+          <t>masonjennings33</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>reynolds_dylan1234</t>
+          <t>estrada.amilia</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>william_083___</t>
+          <t>mikey.tolbertt</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>sadiehayman</t>
+          <t>garcidiacono21</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>maddyimills</t>
+          <t>henrilettmann1</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>sbascha</t>
+          <t>katie.kresge</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>therapymom4</t>
+          <t>mackinzie.clein</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>tessturcco</t>
+          <t>sebastiandecordova</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>lawanitah</t>
+          <t>megahn.moore</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>laura_matthewss_</t>
+          <t>simer_ka_swag</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>lucasm049</t>
+          <t>mrs0pp0</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>emma.markham7</t>
+          <t>addisonbentleyy</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>lynseyzundel</t>
+          <t>delaneyhuiskens</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>mikayla.bowen</t>
+          <t>cruatstate</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>surabhi_y_g</t>
+          <t>jeremy_ghannam</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>sharkboyfish</t>
+          <t>lrnmull</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>neba_02</t>
+          <t>kedusmekuria</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>_purple_potato</t>
+          <t>a_crosby17</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>chimmyoriana</t>
+          <t>_.kiarasmith._</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>chloe.clovers</t>
+          <t>ava.quinn06</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>finn.moher</t>
+          <t>kennedydemars</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>yasser.ah16</t>
+          <t>nickb1731</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>xdevx444</t>
+          <t>e_rich_original</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>aynslee.g</t>
+          <t>blake.halay</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>calista.goluba</t>
+          <t>jacob_piniatoglou</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>alec.demas</t>
+          <t>brenna_boo402</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>joe.ryder1</t>
+          <t>alexis.figueroaaa</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>jake.shah_01</t>
+          <t>jasmyn.alanna</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>tzachs_</t>
+          <t>caylee.russo</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>haleigh_strouse</t>
+          <t>alannaa.topete</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>_rion.ando_</t>
+          <t>_tommybison</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>albertt_lee193</t>
+          <t>sophiaopila</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>5kennedy</t>
+          <t>jlachu_</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>maceypolk</t>
+          <t>bloodwick78</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>adrianamae._</t>
+          <t>julia._.baker</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>avaarwady</t>
+          <t>brooklynn_jule</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>jacob_jp15</t>
+          <t>emma_ronck</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>noahpatt14</t>
+          <t>writtinghub1738</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>jacob.griswold</t>
+          <t>heather_cleve21</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>rileyholtzz</t>
+          <t>aryan.chalicham</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>cindyyzou</t>
+          <t>ava_levandoski06</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>qyzmms</t>
+          <t>eleanorhileman7</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>anat.pissetzky</t>
+          <t>bisht.behumble</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>annabelle.whittle_</t>
+          <t>tharp_maddie</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>nicoleszum</t>
+          <t>grace.gramza</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>shanze_o</t>
+          <t>averyhayes_</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>wellnessbyphoebe</t>
+          <t>sabeengolandaz</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>tyler_hart9</t>
+          <t>jadynbutlerrr</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>carson_coffman10</t>
+          <t>avastoiber</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>nolajc</t>
+          <t>calebbhenderson</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>syd_schulz</t>
+          <t>thomas.sweeney13</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>skdaum2</t>
+          <t>leximcgraw5</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>kyla._.mari</t>
+          <t>p_devoest1</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ethan.long.duet</t>
+          <t>kheinrichh</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>jannatbaswani</t>
+          <t>lauroperez2000</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>chl0eleclerc</t>
+          <t>kaylalkirkland</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>madelineebrown</t>
+          <t>laura.park3r</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>heatherkubiak</t>
+          <t>chadconlin7</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>jj_gray77</t>
+          <t>kaboi16</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>avaawas</t>
+          <t>fatimaelsayed__</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>_imarshall</t>
+          <t>jessicarosssss</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>skye_snyder_1</t>
+          <t>kyliepestow</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>lindseyguza</t>
+          <t>kescannell</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>tessa.mf</t>
+          <t>terry_annah5</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>abbeybiedigerr</t>
+          <t>grace.trax</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>lexisolizz</t>
+          <t>wynterr.t</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>janetkstavy</t>
+          <t>andrew.corbett</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>monacoqueenmadz</t>
+          <t>julian.menser</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>trinitymitchell_04</t>
+          <t>dpolak426</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>im_juliesal</t>
+          <t>d_ross39</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>alyssaschor</t>
+          <t>jlpolaroids</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>lexi_hosmer</t>
+          <t>jasmine.faye_</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>b.dooze</t>
+          <t>maya_kolton</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>kenzgreenfield</t>
+          <t>bearly.unrelatable</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>joey_heilman</t>
+          <t>shdyralf</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>sashastoyanovich10</t>
+          <t>sororitysc</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>vexx_isiah</t>
+          <t>marisacotitsas</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>grant__males</t>
+          <t>annahcweathers</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>alyssabirmele_</t>
+          <t>haley.gano</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>anna.flintoft</t>
+          <t>nhorst71</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>libbydoree</t>
+          <t>axelsimonsens</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>drewj_williams</t>
+          <t>audraplatz</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>wi.lliamwykes</t>
+          <t>_kenziecline</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>alexa._.mich</t>
+          <t>zion_bush</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>xoxoabbyb</t>
+          <t>shannonhamm</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>rilwim</t>
+          <t>tinneycollins</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>lavinia.panetti</t>
+          <t>mahalaxmii_02</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>stelllahenderson</t>
+          <t>reeseweiland</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>frontierolynn</t>
+          <t>miaskaz</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>anvita.04</t>
+          <t>brynnjbennett</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>yaserkarox</t>
+          <t>sydneyvanslembrouck</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>laurenchoraz</t>
+          <t>samhartley21</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>navgon_carlos</t>
+          <t>_jackson_lau</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>jackson.walton28</t>
+          <t>mckenzi_kenzii</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>joshbuko</t>
+          <t>gabeabenavides</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>charlotteedeiness</t>
+          <t>kathryn.brown.13</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>maruskin.abby</t>
+          <t>kikikimmyfrench</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>katiedykema54</t>
+          <t>maddieandreatta</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>brook3bennett</t>
+          <t>lucas_kuhnert_</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>olivia.wells74</t>
+          <t>archerykb04</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>juliahale24</t>
+          <t>violet_molony</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>jezz.sky</t>
+          <t>chelsea.marie.25</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>amita22su</t>
+          <t>rowanhatchetttt</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>pchick99</t>
+          <t>alex_o_loughlin_001</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>alonna_w4</t>
+          <t>isabel._.le</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>toomis155</t>
+          <t>maddie_dalton9</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>emmagracehodges</t>
+          <t>katherineburkosborne</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>allydoeds</t>
+          <t>marissa.frazierr</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>utemel23</t>
+          <t>gor.asavaakash</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>caljack</t>
+          <t>emilyaurora14</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>jlr52104</t>
+          <t>kayli.gorman13</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>marisahartwig_</t>
+          <t>cjnholtz</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>aedmsu</t>
+          <t>jack_gimm</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>stellabolkema</t>
+          <t>robert_andy40</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>julianaschroederr</t>
+          <t>mckenzings</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ethanh377</t>
+          <t>katherinehopkins_</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>oliviapuzzuoli</t>
+          <t>_z_9562</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>mariah.brown13</t>
+          <t>_afiniii._</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>tristan.bakker17</t>
+          <t>marrisjoe69</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>loricarpenterr</t>
+          <t>oliviamack1e</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>natalie_tobey</t>
+          <t>natalieehammer</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>godeyex554</t>
+          <t>champagnenathan2</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>jessii.raee</t>
+          <t>christian_werner_</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ramya.ram04</t>
+          <t>add12on</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>josh1miller</t>
+          <t>marleysmith2684</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>angelicahabib8</t>
+          <t>jordynnsudderth</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>iowa.state2026</t>
+          <t>mmaryamkhayyat</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>katia.zhao</t>
+          <t>danny_lafferty47</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>prabha_45</t>
+          <t>roc4ever0314</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>samigorton</t>
+          <t>_rachelcohen_</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,260 +3598,10 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>_.katiejohnson._</t>
+          <t>jaycitraro</t>
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>catastrophic_sunsets</t>
-        </is>
-      </c>
-      <c r="B318" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>_sarahhdaviss_</t>
-        </is>
-      </c>
-      <c r="B319" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>msu_gssa</t>
-        </is>
-      </c>
-      <c r="B320" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>madison_goodyke</t>
-        </is>
-      </c>
-      <c r="B321" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>_dinayounes</t>
-        </is>
-      </c>
-      <c r="B322" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>eggs8888</t>
-        </is>
-      </c>
-      <c r="B323" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>nathanmcd25</t>
-        </is>
-      </c>
-      <c r="B324" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>wambuifay0</t>
-        </is>
-      </c>
-      <c r="B325" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>ava.ferguson8</t>
-        </is>
-      </c>
-      <c r="B326" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>joshturner.05</t>
-        </is>
-      </c>
-      <c r="B327" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>evelyngrimmm</t>
-        </is>
-      </c>
-      <c r="B328" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>tito.s.m</t>
-        </is>
-      </c>
-      <c r="B329" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>richard_molinelli</t>
-        </is>
-      </c>
-      <c r="B330" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>_ocilocifer_</t>
-        </is>
-      </c>
-      <c r="B331" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>asoooomusbah</t>
-        </is>
-      </c>
-      <c r="B332" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>mariya_panafidina</t>
-        </is>
-      </c>
-      <c r="B333" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>kelly.a.kroll</t>
-        </is>
-      </c>
-      <c r="B334" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>jilskufca</t>
-        </is>
-      </c>
-      <c r="B335" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>amaritorresss</t>
-        </is>
-      </c>
-      <c r="B336" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>johhny_b123</t>
-        </is>
-      </c>
-      <c r="B337" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>masonjennings33</t>
-        </is>
-      </c>
-      <c r="B338" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>straubyk</t>
-        </is>
-      </c>
-      <c r="B339" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>avabeatty_</t>
-        </is>
-      </c>
-      <c r="B340" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>khchachar7227</t>
-        </is>
-      </c>
-      <c r="B341" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>haasinib_</t>
-        </is>
-      </c>
-      <c r="B342" t="b">
         <v>0</v>
       </c>
     </row>
